--- a/data/trans_orig/P2A_enfcro_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2A_enfcro_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>203443</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>182414</v>
+        <v>181247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>225611</v>
+        <v>227458</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4294085885751389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3850223973154689</v>
+        <v>0.3825590653813306</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4761978270884941</v>
+        <v>0.4800959722889907</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>146</v>
@@ -765,19 +765,19 @@
         <v>149106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>131514</v>
+        <v>130351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>166345</v>
+        <v>168307</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4861952732247147</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4288327267629576</v>
+        <v>0.4250405911875509</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.542407061358397</v>
+        <v>0.548803351090173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>343</v>
@@ -786,19 +786,19 @@
         <v>352550</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>326746</v>
+        <v>326153</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>383169</v>
+        <v>382433</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4517229072972082</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4186598079682813</v>
+        <v>0.417899719139602</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4909546910718822</v>
+        <v>0.4900111799744234</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>270333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>248165</v>
+        <v>246318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291362</v>
+        <v>292529</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5705914114248611</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5238021729115059</v>
+        <v>0.5199040277110094</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6149776026845311</v>
+        <v>0.6174409346186694</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>152</v>
@@ -836,19 +836,19 @@
         <v>157574</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>140335</v>
+        <v>138373</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>175166</v>
+        <v>176329</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5138047267752853</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4575929386416029</v>
+        <v>0.4511966489098271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5711672732370422</v>
+        <v>0.5749594088124492</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>410</v>
@@ -857,19 +857,19 @@
         <v>427907</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>397288</v>
+        <v>398024</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>453711</v>
+        <v>454304</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5482770927027918</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5090453089281179</v>
+        <v>0.509988820025577</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5813401920317187</v>
+        <v>0.582100280860398</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>161762</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>142534</v>
+        <v>140755</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>181786</v>
+        <v>180847</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4408477122447982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3884464312318335</v>
+        <v>0.3835978656020646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4954198934189021</v>
+        <v>0.4928599428266691</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>189</v>
@@ -982,19 +982,19 @@
         <v>194962</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>175027</v>
+        <v>178121</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>214118</v>
+        <v>215246</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5242807680798174</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.470674455645772</v>
+        <v>0.4789933318279271</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5757938102692276</v>
+        <v>0.5788283283267147</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>349</v>
@@ -1003,19 +1003,19 @@
         <v>356724</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>325407</v>
+        <v>330811</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>381656</v>
+        <v>383794</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4828426552026045</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4404539359848021</v>
+        <v>0.4477685242193557</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5165897208647005</v>
+        <v>0.5194840717701315</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>205172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>185148</v>
+        <v>186087</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>224400</v>
+        <v>226179</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5591522877552018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5045801065810979</v>
+        <v>0.507140057173331</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6115535687681665</v>
+        <v>0.6164021343979353</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>174</v>
@@ -1053,19 +1053,19 @@
         <v>176903</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>157747</v>
+        <v>156619</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>196838</v>
+        <v>193744</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4757192319201826</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4242061897307722</v>
+        <v>0.4211716716732852</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5293255443542274</v>
+        <v>0.5210066681720728</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>364</v>
@@ -1074,19 +1074,19 @@
         <v>382075</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>357143</v>
+        <v>355005</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>413392</v>
+        <v>407988</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5171573447973955</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4834102791352996</v>
+        <v>0.4805159282298685</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5595460640151979</v>
+        <v>0.5522314757806442</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>244722</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>221206</v>
+        <v>222704</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>267642</v>
+        <v>267914</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4511924976529223</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4078370450520846</v>
+        <v>0.4105987516034888</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4934509734429221</v>
+        <v>0.4939508831263997</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -1199,19 +1199,19 @@
         <v>93942</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>81755</v>
+        <v>81291</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>107331</v>
+        <v>106535</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5599039560293769</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4872674657264587</v>
+        <v>0.4845063004575847</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6397043776542074</v>
+        <v>0.6349634374051394</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>337</v>
@@ -1220,19 +1220,19 @@
         <v>338664</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>311207</v>
+        <v>312070</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>363305</v>
+        <v>369397</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4768761932920976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4382140930834904</v>
+        <v>0.43942903686343</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5115739374056184</v>
+        <v>0.5201520229447749</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>297667</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>274747</v>
+        <v>274475</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>321183</v>
+        <v>319685</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5488075023470776</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5065490265570777</v>
+        <v>0.5060491168736003</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5921629549479154</v>
+        <v>0.5894012483965111</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>72</v>
@@ -1270,19 +1270,19 @@
         <v>73840</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60451</v>
+        <v>61247</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86027</v>
+        <v>86491</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4400960439706231</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.360295622345793</v>
+        <v>0.3650365625948606</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5127325342735415</v>
+        <v>0.5154936995424152</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>359</v>
@@ -1291,19 +1291,19 @@
         <v>371507</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>346866</v>
+        <v>340774</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>398964</v>
+        <v>398101</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5231238067079024</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4884260625943816</v>
+        <v>0.4798479770552251</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5617859069165098</v>
+        <v>0.56057096313657</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>600796</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>566707</v>
+        <v>565998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>640354</v>
+        <v>635513</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4851648784758107</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4576362452865794</v>
+        <v>0.4570643350931871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5171092002774174</v>
+        <v>0.5132003327010504</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>418</v>
@@ -1416,19 +1416,19 @@
         <v>424837</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>399305</v>
+        <v>398198</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>449105</v>
+        <v>452157</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5947729553955183</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5590274933975062</v>
+        <v>0.5574777076254577</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6287476653494958</v>
+        <v>0.6330209177552094</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1025</v>
@@ -1437,19 +1437,19 @@
         <v>1025634</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>978527</v>
+        <v>983367</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1070151</v>
+        <v>1071401</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5252604691255977</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5011356290645024</v>
+        <v>0.5036139506994823</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5480590440773188</v>
+        <v>0.5486992016696189</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>637538</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>597980</v>
+        <v>602821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>671627</v>
+        <v>672336</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5148351215241892</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4828907997225826</v>
+        <v>0.4867996672989497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5423637547134206</v>
+        <v>0.5429356649068129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>276</v>
@@ -1487,19 +1487,19 @@
         <v>289448</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>265180</v>
+        <v>262128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>314980</v>
+        <v>316087</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4052270446044817</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3712523346505043</v>
+        <v>0.3669790822447905</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4409725066024939</v>
+        <v>0.4425222923745424</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>893</v>
@@ -1508,19 +1508,19 @@
         <v>926986</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>882469</v>
+        <v>881219</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>974093</v>
+        <v>969253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4747395308744023</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4519409559226812</v>
+        <v>0.4513007983303812</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4988643709354976</v>
+        <v>0.4963860493005176</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>170004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>147754</v>
+        <v>151249</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>187428</v>
+        <v>189014</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4849561718714465</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4214845495435462</v>
+        <v>0.4314556986698976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5346621661571751</v>
+        <v>0.539184953632635</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>330</v>
@@ -1633,19 +1633,19 @@
         <v>346063</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>323060</v>
+        <v>320636</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>369273</v>
+        <v>368570</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6084604415886447</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5680154616255738</v>
+        <v>0.563752889799542</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6492696306780941</v>
+        <v>0.6480327676172414</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>497</v>
@@ -1654,19 +1654,19 @@
         <v>516067</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>483257</v>
+        <v>483020</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>544121</v>
+        <v>544097</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5613651106806183</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5256751920010422</v>
+        <v>0.5254170262220687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5918812009734905</v>
+        <v>0.5918554553254703</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>180551</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>163127</v>
+        <v>161541</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>202801</v>
+        <v>199306</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5150438281285535</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4653378338428249</v>
+        <v>0.460815046367365</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5785154504564538</v>
+        <v>0.5685443013301024</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>209</v>
@@ -1704,19 +1704,19 @@
         <v>222689</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199479</v>
+        <v>200182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>245692</v>
+        <v>248116</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3915395584113553</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3507303693219059</v>
+        <v>0.3519672323827586</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4319845383744261</v>
+        <v>0.4362471102004579</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>382</v>
@@ -1725,19 +1725,19 @@
         <v>403240</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375186</v>
+        <v>375210</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>436050</v>
+        <v>436287</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4386348893193817</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4081187990265103</v>
+        <v>0.4081445446745296</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4743248079989582</v>
+        <v>0.4745829737779313</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>70350</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>56703</v>
+        <v>56959</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86332</v>
+        <v>85206</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2359154150704771</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1901496607208895</v>
+        <v>0.1910103351244221</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2895078251800938</v>
+        <v>0.2857322747398119</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>819</v>
@@ -1850,19 +1850,19 @@
         <v>831860</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>798579</v>
+        <v>797597</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>863855</v>
+        <v>862708</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6661490484662359</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6394975851002206</v>
+        <v>0.6387110404911885</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6917704821046762</v>
+        <v>0.6908514751530622</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>892</v>
@@ -1871,19 +1871,19 @@
         <v>902210</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>866800</v>
+        <v>860034</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>944589</v>
+        <v>940398</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5832148585961643</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5603245511514324</v>
+        <v>0.5559511219090812</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6106095941142514</v>
+        <v>0.6079004443311293</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>227851</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>211869</v>
+        <v>212995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>241498</v>
+        <v>241242</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7640845849295229</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7104921748199067</v>
+        <v>0.7142677252601882</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8098503392791107</v>
+        <v>0.8089896648755781</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>419</v>
@@ -1921,19 +1921,19 @@
         <v>416900</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>384905</v>
+        <v>386052</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>450181</v>
+        <v>451163</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.333850951533764</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3082295178953237</v>
+        <v>0.3091485248469378</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3605024148997793</v>
+        <v>0.3612889595088114</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>652</v>
@@ -1942,19 +1942,19 @@
         <v>644750</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602371</v>
+        <v>606562</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>680160</v>
+        <v>686926</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4167851414038357</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3893904058857484</v>
+        <v>0.3920995556688707</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4396754488485675</v>
+        <v>0.4440488780909188</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>1451078</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1395682</v>
+        <v>1396237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1505784</v>
+        <v>1511209</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4437289869944169</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4267892757189154</v>
+        <v>0.4269588507709373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4604576946703254</v>
+        <v>0.4621164433115708</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1994</v>
@@ -2067,19 +2067,19 @@
         <v>2040771</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1982200</v>
+        <v>1986567</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2096208</v>
+        <v>2094062</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6041135763945771</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5867755023598927</v>
+        <v>0.5880681676737648</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6205244214721637</v>
+        <v>0.6198891092104025</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3443</v>
@@ -2088,19 +2088,19 @@
         <v>3491849</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3410583</v>
+        <v>3411159</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3574299</v>
+        <v>3571568</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5252231872399776</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5129996460084435</v>
+        <v>0.5130863803955058</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5376249074012093</v>
+        <v>0.5372141606354236</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1819112</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1764406</v>
+        <v>1758981</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1874508</v>
+        <v>1873953</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5562710130055831</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5395423053296747</v>
+        <v>0.5378835566884292</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5732107242810847</v>
+        <v>0.5730411492290629</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1302</v>
@@ -2138,19 +2138,19 @@
         <v>1337353</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1281916</v>
+        <v>1284062</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1395924</v>
+        <v>1391557</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3958864236054229</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3794755785278363</v>
+        <v>0.3801108907895975</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4132244976401073</v>
+        <v>0.4119318323262351</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3060</v>
@@ -2159,19 +2159,19 @@
         <v>3156465</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3074015</v>
+        <v>3076746</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3237731</v>
+        <v>3237155</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4747768127600224</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4623750925987907</v>
+        <v>0.4627858393645763</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4870003539915566</v>
+        <v>0.4869136196044942</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>217665</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>196111</v>
+        <v>194272</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>238018</v>
+        <v>239738</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4978498566792643</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4485507102152599</v>
+        <v>0.4443446394536044</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5444003472735818</v>
+        <v>0.5483352004978329</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -2526,19 +2526,19 @@
         <v>160677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>139915</v>
+        <v>143631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>179133</v>
+        <v>177595</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5109720275619367</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4449460755289117</v>
+        <v>0.456764657170408</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5696631254584446</v>
+        <v>0.564772686509177</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>342</v>
@@ -2547,19 +2547,19 @@
         <v>378343</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>349777</v>
+        <v>349442</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>409352</v>
+        <v>407214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.503339432852179</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4653357112596845</v>
+        <v>0.4648910779008333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5445934473567681</v>
+        <v>0.5417493719164899</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>219546</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>199193</v>
+        <v>197473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>241100</v>
+        <v>242939</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5021501433207357</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4555996527264182</v>
+        <v>0.4516647995021671</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5514492897847401</v>
+        <v>0.5556553605463955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>140</v>
@@ -2597,19 +2597,19 @@
         <v>153777</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135321</v>
+        <v>136859</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174539</v>
+        <v>170823</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4890279724380633</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4303368745415553</v>
+        <v>0.4352273134908229</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5550539244710871</v>
+        <v>0.5432353428295917</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>345</v>
@@ -2618,19 +2618,19 @@
         <v>373322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>342313</v>
+        <v>344451</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>401888</v>
+        <v>402223</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.496660567147821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4554065526432319</v>
+        <v>0.4582506280835102</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5346642887403155</v>
+        <v>0.5351089220991668</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>217646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>196463</v>
+        <v>196376</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>240351</v>
+        <v>241635</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.519692534626817</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4691121400700142</v>
+        <v>0.468905137633444</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5739076735302469</v>
+        <v>0.5769743394151906</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>184</v>
@@ -2743,19 +2743,19 @@
         <v>206254</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>190711</v>
+        <v>185677</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>224491</v>
+        <v>225132</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.610199667074461</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.564215370101732</v>
+        <v>0.5493209183547632</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.664153728322185</v>
+        <v>0.6660496822436156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>379</v>
@@ -2764,19 +2764,19 @@
         <v>423900</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>393185</v>
+        <v>398512</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>451722</v>
+        <v>455618</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5601154860073773</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5195306898094566</v>
+        <v>0.526569844029352</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5968785193768238</v>
+        <v>0.6020256031419345</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>201151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>178446</v>
+        <v>177162</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>222334</v>
+        <v>222421</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.480307465373183</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4260923264697531</v>
+        <v>0.4230256605848092</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5308878599299858</v>
+        <v>0.531094862366556</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>121</v>
@@ -2814,19 +2814,19 @@
         <v>131757</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>113520</v>
+        <v>112879</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>147300</v>
+        <v>152334</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3898003329255389</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3358462716778149</v>
+        <v>0.3339503177563843</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4357846298982679</v>
+        <v>0.4506790816452367</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>301</v>
@@ -2835,19 +2835,19 @@
         <v>332908</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>305086</v>
+        <v>301190</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>363623</v>
+        <v>358296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4398845139926227</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4031214806231762</v>
+        <v>0.3979743968580653</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4804693101905432</v>
+        <v>0.4734301559706479</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>359892</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>332692</v>
+        <v>334482</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>387274</v>
+        <v>385179</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5717882628150032</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5285736745846639</v>
+        <v>0.5314166839425652</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6152926966312723</v>
+        <v>0.6119627968135183</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>170</v>
@@ -2960,19 +2960,19 @@
         <v>182340</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165643</v>
+        <v>167220</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>196827</v>
+        <v>196779</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7009582008573804</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6367732112141807</v>
+        <v>0.642835810733102</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7566502413724604</v>
+        <v>0.7564653712423135</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>501</v>
@@ -2981,19 +2981,19 @@
         <v>542232</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>512098</v>
+        <v>511561</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>571141</v>
+        <v>572375</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6095614285304105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5756855212046056</v>
+        <v>0.5750818185463107</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6420606046866293</v>
+        <v>0.6434479951276436</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>269523</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>242141</v>
+        <v>244236</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>296723</v>
+        <v>294933</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4282117371849969</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3847073033687277</v>
+        <v>0.3880372031864818</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4714263254153361</v>
+        <v>0.4685833160574348</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>74</v>
@@ -3031,19 +3031,19 @@
         <v>77789</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>63302</v>
+        <v>63350</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94486</v>
+        <v>92909</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2990417991426196</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2433497586275398</v>
+        <v>0.2435346287576879</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3632267887858196</v>
+        <v>0.3571641892668987</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>334</v>
@@ -3052,19 +3052,19 @@
         <v>347312</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>318403</v>
+        <v>317169</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>377446</v>
+        <v>377983</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3904385714695895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3579393953133708</v>
+        <v>0.3565520048723564</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4243144787953946</v>
+        <v>0.4249181814536893</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>661524</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>626406</v>
+        <v>627569</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>695507</v>
+        <v>698465</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5707669764044685</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5404673253810081</v>
+        <v>0.541470637587749</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6000875728859951</v>
+        <v>0.6026397830411853</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>446</v>
@@ -3177,19 +3177,19 @@
         <v>483199</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>452146</v>
+        <v>456332</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>510423</v>
+        <v>510031</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.630268073342849</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5897627117003325</v>
+        <v>0.5952227962654165</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6657770946903669</v>
+        <v>0.6652658230957456</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1067</v>
@@ -3198,19 +3198,19 @@
         <v>1144724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1102931</v>
+        <v>1102438</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1187742</v>
+        <v>1190825</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5944558935915742</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5727526377616334</v>
+        <v>0.5724966951400413</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6167951215289659</v>
+        <v>0.6183960712186396</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>497485</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>463502</v>
+        <v>460544</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>532603</v>
+        <v>531440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4292330235955315</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3999124271140044</v>
+        <v>0.3973602169588144</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4595326746189918</v>
+        <v>0.458529362412251</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>265</v>
@@ -3248,19 +3248,19 @@
         <v>283458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256234</v>
+        <v>256626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>314511</v>
+        <v>310325</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3697319266571511</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3342229053096331</v>
+        <v>0.3347341769042544</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4102372882996675</v>
+        <v>0.4047772037345835</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>727</v>
@@ -3269,19 +3269,19 @@
         <v>780943</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>737925</v>
+        <v>734842</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>822736</v>
+        <v>823229</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4055441064084258</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3832048784710341</v>
+        <v>0.3816039287813604</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4272473622383665</v>
+        <v>0.4275033048599586</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>288103</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>263924</v>
+        <v>265107</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>310033</v>
+        <v>310297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5642489410717034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5168947001484352</v>
+        <v>0.5192112075113509</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6071986069763666</v>
+        <v>0.6077148310679098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>519</v>
@@ -3394,19 +3394,19 @@
         <v>559779</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>532437</v>
+        <v>533673</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>582403</v>
+        <v>583809</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7350791053220769</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6991743930088659</v>
+        <v>0.7007972335833973</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7647887195155938</v>
+        <v>0.7666349417148614</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>792</v>
@@ -3415,19 +3415,19 @@
         <v>847882</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>810076</v>
+        <v>814591</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>880677</v>
+        <v>884154</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6665121580982177</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6367932833571273</v>
+        <v>0.6403421559396916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.692292078103947</v>
+        <v>0.6950253180866323</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>222493</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200563</v>
+        <v>200299</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>246672</v>
+        <v>245489</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4357510589282966</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3928013930236333</v>
+        <v>0.3922851689320902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4831052998515649</v>
+        <v>0.4807887924886491</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>184</v>
@@ -3465,19 +3465,19 @@
         <v>201743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179119</v>
+        <v>177713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>229085</v>
+        <v>227849</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2649208946779231</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2352112804844062</v>
+        <v>0.2333650582851384</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3008256069911341</v>
+        <v>0.2992027664166026</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>398</v>
@@ -3486,19 +3486,19 @@
         <v>424236</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>391441</v>
+        <v>387964</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>462042</v>
+        <v>457527</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3334878419017823</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3077079218960529</v>
+        <v>0.3049746819133676</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3632067166428728</v>
+        <v>0.3596578440603078</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>98397</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82875</v>
+        <v>83948</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>115158</v>
+        <v>116239</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3686905998815145</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3105293816773294</v>
+        <v>0.3145493581023689</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4314959099274374</v>
+        <v>0.4355430181365604</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>752</v>
@@ -3611,19 +3611,19 @@
         <v>805655</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>778574</v>
+        <v>773137</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>836344</v>
+        <v>834381</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.7262396038741205</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.701828024898168</v>
+        <v>0.6969277108006278</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7539035438618905</v>
+        <v>0.7521343982613952</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>847</v>
@@ -3632,19 +3632,19 @@
         <v>904052</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>867203</v>
+        <v>869494</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>939375</v>
+        <v>940681</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6569029768024833</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6301282923785966</v>
+        <v>0.6317928724467259</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.682569516621482</v>
+        <v>0.6835185584988842</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>168485</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151724</v>
+        <v>150643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>184007</v>
+        <v>182934</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6313094001184856</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5685040900725625</v>
+        <v>0.5644569818634396</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6894706183226705</v>
+        <v>0.6854506418976312</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>292</v>
@@ -3682,19 +3682,19 @@
         <v>303696</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>273007</v>
+        <v>274970</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>330777</v>
+        <v>336214</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2737603961258795</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2460964561381095</v>
+        <v>0.2478656017386048</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.298171975101832</v>
+        <v>0.3030722891993722</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>462</v>
@@ -3703,19 +3703,19 @@
         <v>472181</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>436858</v>
+        <v>435552</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>509030</v>
+        <v>506739</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3430970231975167</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.317430483378518</v>
+        <v>0.3164814415011158</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3698717076214035</v>
+        <v>0.3682071275532742</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1843227</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1781519</v>
+        <v>1782155</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1904912</v>
+        <v>1906928</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5386545672080307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5206212020844393</v>
+        <v>0.5208071358250331</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.556680963533964</v>
+        <v>0.5572699784195928</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2214</v>
@@ -3828,19 +3828,19 @@
         <v>2397905</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2344032</v>
+        <v>2341305</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2451632</v>
+        <v>2459584</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6754422912256353</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6602673951046265</v>
+        <v>0.6594994431559515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.690576142556483</v>
+        <v>0.6928162349635854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3928</v>
@@ -3849,19 +3849,19 @@
         <v>4241132</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4157374</v>
+        <v>4161817</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4322002</v>
+        <v>4327053</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6083061881642574</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.59629274587465</v>
+        <v>0.5969300576506001</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6199053985173395</v>
+        <v>0.6206298567505054</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1578683</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1516998</v>
+        <v>1514982</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1640391</v>
+        <v>1639755</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4613454327919692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4433190364660362</v>
+        <v>0.4427300215804071</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4793787979155608</v>
+        <v>0.4791928641749669</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1076</v>
@@ -3899,19 +3899,19 @@
         <v>1152220</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1098493</v>
+        <v>1090541</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1206093</v>
+        <v>1208820</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3245577087743648</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3094238574435171</v>
+        <v>0.3071837650364146</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3397326048953742</v>
+        <v>0.3405005568440486</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2567</v>
@@ -3920,19 +3920,19 @@
         <v>2730903</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2650033</v>
+        <v>2644982</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2814661</v>
+        <v>2810218</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3916938118357426</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3800946014826605</v>
+        <v>0.3793701432494946</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4037072541253499</v>
+        <v>0.4030699423493998</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>192112</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171575</v>
+        <v>171171</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>213950</v>
+        <v>212250</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.447716465868044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3998568687158981</v>
+        <v>0.3989139216847324</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4986099464108342</v>
+        <v>0.4946489687642999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>162</v>
@@ -4287,19 +4287,19 @@
         <v>175052</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>156437</v>
+        <v>156421</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>193563</v>
+        <v>195312</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.504392750758431</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4507557654438243</v>
+        <v>0.4507091809142985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5577302644018175</v>
+        <v>0.5627693582287305</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>341</v>
@@ -4308,19 +4308,19 @@
         <v>367164</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>339073</v>
+        <v>338274</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>395469</v>
+        <v>395228</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4730593259955105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4368666933469031</v>
+        <v>0.4358370193482205</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5095287646584989</v>
+        <v>0.5092174262804667</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>236980</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>215142</v>
+        <v>216842</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257517</v>
+        <v>257921</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5522835341319561</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5013900535891658</v>
+        <v>0.5053510312357</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6001431312841019</v>
+        <v>0.6010860783152675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -4358,19 +4358,19 @@
         <v>172003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>153492</v>
+        <v>151743</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>190618</v>
+        <v>190634</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.495607249241569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4422697355981826</v>
+        <v>0.4372306417712697</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5492442345561758</v>
+        <v>0.5492908190857014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>387</v>
@@ -4379,19 +4379,19 @@
         <v>408983</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>380678</v>
+        <v>380919</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>437074</v>
+        <v>437873</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5269406740044895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4904712353415011</v>
+        <v>0.4907825737195333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5631333066530974</v>
+        <v>0.5641629806517796</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>178420</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158455</v>
+        <v>159339</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>199337</v>
+        <v>198927</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4729788608232203</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4200518712277556</v>
+        <v>0.4223957984086631</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.528426551391475</v>
+        <v>0.5273403296942496</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>172</v>
@@ -4504,19 +4504,19 @@
         <v>184417</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165197</v>
+        <v>165918</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203282</v>
+        <v>204487</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4953798322963044</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.4437517596092863</v>
+        <v>0.4456899851882751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5460551719592924</v>
+        <v>0.5492943617572799</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>340</v>
@@ -4525,19 +4525,19 @@
         <v>362837</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>336394</v>
+        <v>333665</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>392907</v>
+        <v>393390</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.484105318375409</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4488246057839601</v>
+        <v>0.4451837023713567</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5242259400358625</v>
+        <v>0.5248700825937803</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>198807</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>177890</v>
+        <v>178300</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218772</v>
+        <v>217888</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5270211391767797</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.471573448608525</v>
+        <v>0.4726596703057505</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5799481287722444</v>
+        <v>0.5776042015913369</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>180</v>
@@ -4575,19 +4575,19 @@
         <v>187856</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>168991</v>
+        <v>167786</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>207076</v>
+        <v>206355</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5046201677036956</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4539448280407076</v>
+        <v>0.4507056382427202</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5562482403907136</v>
+        <v>0.5543100148117248</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>366</v>
@@ -4596,19 +4596,19 @@
         <v>386663</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>356593</v>
+        <v>356110</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>413106</v>
+        <v>415835</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5158946816245911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4757740599641374</v>
+        <v>0.4751299174062196</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5511753942160398</v>
+        <v>0.5548162976286433</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>288286</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>265798</v>
+        <v>266418</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>310836</v>
+        <v>311158</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5523631337197035</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5092752087473588</v>
+        <v>0.510463193142885</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5955687856756815</v>
+        <v>0.5961863174154317</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -4721,19 +4721,19 @@
         <v>110323</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97503</v>
+        <v>97004</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122748</v>
+        <v>122062</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6641019634070934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5869314274012198</v>
+        <v>0.5839268652135824</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7388990278035699</v>
+        <v>0.7347695002772079</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>378</v>
@@ -4742,19 +4742,19 @@
         <v>398608</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>373258</v>
+        <v>369403</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427327</v>
+        <v>422493</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.579341888272076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5424983292164396</v>
+        <v>0.5368945610397519</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6210823755509403</v>
+        <v>0.6140562608807114</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>233628</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>211078</v>
+        <v>210756</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>256116</v>
+        <v>255496</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4476368662802965</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4044312143243185</v>
+        <v>0.4038136825845683</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4907247912526413</v>
+        <v>0.489536806857115</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -4792,19 +4792,19 @@
         <v>55800</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43375</v>
+        <v>44061</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>68620</v>
+        <v>69119</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3358980365929066</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2611009721964302</v>
+        <v>0.265230499722792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4130685725987802</v>
+        <v>0.4160731347864177</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>277</v>
@@ -4813,19 +4813,19 @@
         <v>289428</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>260709</v>
+        <v>265543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>314778</v>
+        <v>318633</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.420658111727924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3789176244490597</v>
+        <v>0.3859437391192885</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4575016707835603</v>
+        <v>0.4631054389602481</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>608645</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>574356</v>
+        <v>571348</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>643909</v>
+        <v>643162</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5294233404241855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4995970370142978</v>
+        <v>0.4969809219372209</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5600968737132822</v>
+        <v>0.5594474952983667</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>416</v>
@@ -4938,19 +4938,19 @@
         <v>441832</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>411831</v>
+        <v>412850</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>470084</v>
+        <v>469493</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5349856235417531</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4986599012246138</v>
+        <v>0.4998929645103306</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5691940065473228</v>
+        <v>0.5684792193378649</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1002</v>
@@ -4959,19 +4959,19 @@
         <v>1050477</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1007593</v>
+        <v>1005595</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1093880</v>
+        <v>1092812</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.531748687048489</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5100411105342858</v>
+        <v>0.5090295880168922</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5537190015898728</v>
+        <v>0.553178658374875</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>540993</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>505729</v>
+        <v>506476</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>575282</v>
+        <v>578290</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4705766595758146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.439903126286718</v>
+        <v>0.4405525047016333</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5004029629857023</v>
+        <v>0.5030190780627791</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>382</v>
@@ -5009,19 +5009,19 @@
         <v>384044</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>355792</v>
+        <v>356383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>414045</v>
+        <v>413026</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4650143764582469</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4308059934526771</v>
+        <v>0.4315207806621348</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5013400987753861</v>
+        <v>0.5001070354896693</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>899</v>
@@ -5030,19 +5030,19 @@
         <v>925037</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>881634</v>
+        <v>882702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>967921</v>
+        <v>969919</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.468251312951511</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4462809984101272</v>
+        <v>0.446821341625125</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4899588894657141</v>
+        <v>0.4909704119831078</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>327685</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>300140</v>
+        <v>302646</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>350599</v>
+        <v>355268</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5279224983024183</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4835462558255567</v>
+        <v>0.4875828466370764</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5648393671786621</v>
+        <v>0.5723607838209502</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>481</v>
@@ -5155,19 +5155,19 @@
         <v>517054</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>489058</v>
+        <v>491445</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>539056</v>
+        <v>541533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7003830140795496</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6624606561345903</v>
+        <v>0.665694929694574</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7301864833831715</v>
+        <v>0.7335423628562465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>806</v>
@@ -5176,19 +5176,19 @@
         <v>844738</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>806678</v>
+        <v>808542</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>878453</v>
+        <v>878764</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6216109801366031</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5936039293992156</v>
+        <v>0.5949755275706937</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6464205719773927</v>
+        <v>0.6466495952595573</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>293021</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>270107</v>
+        <v>265438</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>320566</v>
+        <v>318060</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4720775016975816</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4351606328213378</v>
+        <v>0.4276392161790497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5164537441744432</v>
+        <v>0.5124171533629236</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>218</v>
@@ -5226,19 +5226,19 @@
         <v>221190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199188</v>
+        <v>196711</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249186</v>
+        <v>246799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2996169859204504</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2698135166168285</v>
+        <v>0.2664576371437533</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.337539343865409</v>
+        <v>0.334305070305426</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>490</v>
@@ -5247,19 +5247,19 @@
         <v>514212</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>480497</v>
+        <v>480186</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>552272</v>
+        <v>550408</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3783890198633969</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3535794280226073</v>
+        <v>0.3533504047404427</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4063960706007843</v>
+        <v>0.4050244724293063</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>91699</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>76099</v>
+        <v>76764</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>107905</v>
+        <v>107428</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.319346501968918</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.265021146608631</v>
+        <v>0.2673364061636324</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3757855290833578</v>
+        <v>0.3741249000236736</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>645</v>
@@ -5372,19 +5372,19 @@
         <v>732358</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>697918</v>
+        <v>702529</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>761117</v>
+        <v>765350</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6768406116331031</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6450113020066216</v>
+        <v>0.6492727423683051</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7034186465646665</v>
+        <v>0.7073308213657911</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>733</v>
@@ -5393,19 +5393,19 @@
         <v>824057</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>788186</v>
+        <v>784588</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>858849</v>
+        <v>860807</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.6018662119186622</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5756672353078272</v>
+        <v>0.5730393904797738</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.6272772219439908</v>
+        <v>0.628706954510463</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>195446</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>179240</v>
+        <v>179717</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>211046</v>
+        <v>210381</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.680653498031082</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6242144709166422</v>
+        <v>0.6258750999763264</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7349788533913688</v>
+        <v>0.7326635938363677</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>347</v>
@@ -5443,19 +5443,19 @@
         <v>349667</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>320908</v>
+        <v>316675</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>384107</v>
+        <v>379496</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.323159388366897</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2965813534353335</v>
+        <v>0.2926691786342089</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3549886979933784</v>
+        <v>0.3507272576316949</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>531</v>
@@ -5464,19 +5464,19 @@
         <v>545113</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>510321</v>
+        <v>508363</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>580984</v>
+        <v>584582</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3981337880813379</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3727227780560092</v>
+        <v>0.371293045489537</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4243327646921728</v>
+        <v>0.4269606095202262</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>1686847</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1629846</v>
+        <v>1627950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1743096</v>
+        <v>1744731</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.498223588181366</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4813880262531081</v>
+        <v>0.4808280201223241</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5148372632946236</v>
+        <v>0.5153200967947505</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1974</v>
@@ -5589,19 +5589,19 @@
         <v>2161035</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2096014</v>
+        <v>2108397</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2221552</v>
+        <v>2222526</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6119145397577996</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5935032214679943</v>
+        <v>0.5970096508775051</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6290505401689723</v>
+        <v>0.6293260931290309</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3600</v>
@@ -5610,19 +5610,19 @@
         <v>3847881</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3765972</v>
+        <v>3764752</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3932164</v>
+        <v>3937993</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5562678320140146</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5444266506302822</v>
+        <v>0.5442503113379829</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5684520645988892</v>
+        <v>0.5692947427880033</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1698875</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1642626</v>
+        <v>1640991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1755876</v>
+        <v>1757772</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.501776411818634</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4851627367053763</v>
+        <v>0.4846799032052493</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5186119737468917</v>
+        <v>0.5191719798776759</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1352</v>
@@ -5660,19 +5660,19 @@
         <v>1370561</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1310044</v>
+        <v>1309070</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1435582</v>
+        <v>1423199</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3880854602422004</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3709494598310277</v>
+        <v>0.3706739068709691</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4064967785320058</v>
+        <v>0.4029903491224949</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2950</v>
@@ -5681,19 +5681,19 @@
         <v>3069437</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2985154</v>
+        <v>2979325</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3151346</v>
+        <v>3152566</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4437321679859854</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4315479354011108</v>
+        <v>0.4307052572119967</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4555733493697178</v>
+        <v>0.4557496886620171</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>173661</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150656</v>
+        <v>153064</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>195322</v>
+        <v>196798</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3153934203769042</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2736130816378285</v>
+        <v>0.2779857536022372</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3547323558695566</v>
+        <v>0.3574129430327833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -6048,19 +6048,19 @@
         <v>165777</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>148392</v>
+        <v>148049</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>184198</v>
+        <v>183613</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3394207594180942</v>
+        <v>0.3394207594180941</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3038257681958357</v>
+        <v>0.3031247042231471</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3771372216753591</v>
+        <v>0.3759391569000797</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>429</v>
@@ -6069,19 +6069,19 @@
         <v>339438</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>312806</v>
+        <v>308294</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>368848</v>
+        <v>370808</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3266878233512259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3010563847849035</v>
+        <v>0.2967136738182308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.354993055464523</v>
+        <v>0.3568797800228035</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>376957</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>355296</v>
+        <v>353820</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>399962</v>
+        <v>397554</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6846065796230959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6452676441304431</v>
+        <v>0.6425870569672169</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7263869183621714</v>
+        <v>0.7220142463977629</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>448</v>
@@ -6119,19 +6119,19 @@
         <v>322634</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>304213</v>
+        <v>304798</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>340019</v>
+        <v>340362</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.660579240581906</v>
+        <v>0.6605792405819058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6228627783246409</v>
+        <v>0.6240608430999203</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6961742318041642</v>
+        <v>0.6968752957768528</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>811</v>
@@ -6140,19 +6140,19 @@
         <v>699591</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>670181</v>
+        <v>668221</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>726223</v>
+        <v>730735</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6733121766487742</v>
+        <v>0.6733121766487741</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6450069445354772</v>
+        <v>0.6431202199771966</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6989436152150965</v>
+        <v>0.7032863261817691</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>152153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>132775</v>
+        <v>129682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>175212</v>
+        <v>172462</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3148774281092355</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2747758913931312</v>
+        <v>0.2683753778421505</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3625983412243515</v>
+        <v>0.3569076643888755</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>192</v>
@@ -6265,19 +6265,19 @@
         <v>125194</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110949</v>
+        <v>110610</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142311</v>
+        <v>142190</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2958669389781769</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2622026699640932</v>
+        <v>0.2614011071806452</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3363179376590137</v>
+        <v>0.3360329339076262</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>356</v>
@@ -6286,19 +6286,19 @@
         <v>277347</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>250814</v>
+        <v>249755</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>303063</v>
+        <v>301704</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.306002150078089</v>
+        <v>0.3060021500780891</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.276728068919936</v>
+        <v>0.2755599163623982</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3343752359415325</v>
+        <v>0.3328758213540606</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>331059</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308000</v>
+        <v>310750</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>350437</v>
+        <v>353530</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6851225718907644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6374016587756485</v>
+        <v>0.6430923356111244</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7252241086068688</v>
+        <v>0.7316246221578493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>398</v>
@@ -6336,19 +6336,19 @@
         <v>297949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>280832</v>
+        <v>280953</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>312194</v>
+        <v>312533</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7041330610218229</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6636820623409863</v>
+        <v>0.6639670660923741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7377973300359066</v>
+        <v>0.7385988928193546</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>715</v>
@@ -6357,19 +6357,19 @@
         <v>629008</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>603292</v>
+        <v>604651</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>655541</v>
+        <v>656600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.693997849921911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6656247640584685</v>
+        <v>0.6671241786459394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7232719310800643</v>
+        <v>0.7244400836376019</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>144604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>125494</v>
+        <v>124654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>164343</v>
+        <v>164417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3066160376282527</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2660961627363075</v>
+        <v>0.2643151026115693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3484717727057052</v>
+        <v>0.3486269714215415</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -6482,19 +6482,19 @@
         <v>82447</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>71222</v>
+        <v>70822</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>94015</v>
+        <v>94019</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4397262163287346</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3798544010383473</v>
+        <v>0.3777246869769955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5014230405236251</v>
+        <v>0.5014412652006441</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>306</v>
@@ -6503,19 +6503,19 @@
         <v>227051</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>204399</v>
+        <v>204653</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>248595</v>
+        <v>248724</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3444820007785761</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3101145743654367</v>
+        <v>0.3105001347720323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3771685375254458</v>
+        <v>0.3773644747077761</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>327008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>307269</v>
+        <v>307195</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>346118</v>
+        <v>346958</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6933839623717473</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6515282272942947</v>
+        <v>0.6513730285784586</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7339038372636926</v>
+        <v>0.7356848973884306</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>153</v>
@@ -6553,19 +6553,19 @@
         <v>105050</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>93482</v>
+        <v>93478</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>116275</v>
+        <v>116675</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.5602737836712653</v>
+        <v>0.5602737836712655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.498576959476375</v>
+        <v>0.4985587347993558</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6201455989616527</v>
+        <v>0.6222753130230045</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>471</v>
@@ -6574,19 +6574,19 @@
         <v>432058</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>410514</v>
+        <v>410385</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>454710</v>
+        <v>454456</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6555179992214238</v>
+        <v>0.655517999221424</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6228314624745541</v>
+        <v>0.6226355252922239</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6898854256345632</v>
+        <v>0.6894998652279674</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>404811</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>371327</v>
+        <v>370329</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>440036</v>
+        <v>439487</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3576562057581149</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3280729660654007</v>
+        <v>0.327190758775422</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3887785750986419</v>
+        <v>0.3882928909690018</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>488</v>
@@ -6699,19 +6699,19 @@
         <v>313809</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>291112</v>
+        <v>291215</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>338590</v>
+        <v>339734</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3643810688054441</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3380263206957494</v>
+        <v>0.3381454353387371</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3931555981444239</v>
+        <v>0.3944842387328809</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>951</v>
@@ -6720,19 +6720,19 @@
         <v>718620</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>675623</v>
+        <v>677646</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>758867</v>
+        <v>761352</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3605620619259214</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3389890227036477</v>
+        <v>0.3400039093922869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3807556836338006</v>
+        <v>0.3820029174098744</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>727032</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>691807</v>
+        <v>692356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>760516</v>
+        <v>761514</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.642343794241885</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6112214249013582</v>
+        <v>0.6117071090309983</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6719270339345994</v>
+        <v>0.6728092412245781</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>742</v>
@@ -6770,19 +6770,19 @@
         <v>547402</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>522621</v>
+        <v>521477</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>570099</v>
+        <v>569996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6356189311945559</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6068444018555759</v>
+        <v>0.6055157612671191</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6619736793042506</v>
+        <v>0.6618545646612627</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1397</v>
@@ -6791,19 +6791,19 @@
         <v>1274434</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1234187</v>
+        <v>1231702</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1317431</v>
+        <v>1315408</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6394379380740784</v>
+        <v>0.6394379380740786</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6192443163661994</v>
+        <v>0.6179970825901255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6610109772963523</v>
+        <v>0.6599960906077131</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>196160</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>173140</v>
+        <v>171438</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>223071</v>
+        <v>220443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3453739936338879</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3048432353570074</v>
+        <v>0.3018467586175251</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3927556965920016</v>
+        <v>0.3881288757377352</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>657</v>
@@ -6916,19 +6916,19 @@
         <v>389180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>364299</v>
+        <v>363607</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>411696</v>
+        <v>416782</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4684122522223462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4384656511367431</v>
+        <v>0.4376329245424863</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4955114757681493</v>
+        <v>0.5016331978309513</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>873</v>
@@ -6937,19 +6937,19 @@
         <v>585340</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>549429</v>
+        <v>551005</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>617883</v>
+        <v>617727</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4184547376490513</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3927820869050613</v>
+        <v>0.3939088395710999</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.44171898800152</v>
+        <v>0.4416077107696096</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>371804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>344893</v>
+        <v>347521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>394824</v>
+        <v>396526</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6546260063661121</v>
+        <v>0.654626006366112</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6072443034079986</v>
+        <v>0.6118711242622649</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6951567646429926</v>
+        <v>0.6981532413824749</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>633</v>
@@ -6987,19 +6987,19 @@
         <v>441670</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>419154</v>
+        <v>414068</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>466551</v>
+        <v>467243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5315877477776538</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5044885242318506</v>
+        <v>0.4983668021690486</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5615343488632575</v>
+        <v>0.5623670754575136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>964</v>
@@ -7008,19 +7008,19 @@
         <v>813474</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>780931</v>
+        <v>781087</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>849385</v>
+        <v>847809</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.5815452623509488</v>
+        <v>0.5815452623509487</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5582810119984802</v>
+        <v>0.5583922892303905</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6072179130949387</v>
+        <v>0.6060911604289002</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>52154</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34048</v>
+        <v>34739</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75029</v>
+        <v>73309</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2198462563613557</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1435223766650886</v>
+        <v>0.1464381224829387</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3162738079339757</v>
+        <v>0.3090225870756373</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>597</v>
@@ -7133,19 +7133,19 @@
         <v>371728</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>343608</v>
+        <v>346007</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>397657</v>
+        <v>401837</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.4402894820055111</v>
+        <v>0.4402894820055112</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.406982883911321</v>
+        <v>0.4098246784818705</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4710011701408688</v>
+        <v>0.4759517460628684</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>625</v>
@@ -7154,19 +7154,19 @@
         <v>423882</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>389797</v>
+        <v>386338</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>458674</v>
+        <v>456949</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3919355036738973</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3604193680689586</v>
+        <v>0.3572217056732317</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4241052876228557</v>
+        <v>0.4225104169169742</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>185074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>162199</v>
+        <v>163919</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>203180</v>
+        <v>202489</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7801537436386443</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6837261920660244</v>
+        <v>0.6909774129243632</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8564776233349115</v>
+        <v>0.8535618775170614</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>562</v>
@@ -7204,19 +7204,19 @@
         <v>472553</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>446624</v>
+        <v>442444</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>500673</v>
+        <v>498274</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.5597105179944888</v>
+        <v>0.5597105179944889</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.528998829859131</v>
+        <v>0.5240482539371316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5930171160886785</v>
+        <v>0.5901753215181295</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>646</v>
@@ -7225,19 +7225,19 @@
         <v>657627</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>622835</v>
+        <v>624560</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>691712</v>
+        <v>695171</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6080644963261028</v>
+        <v>0.6080644963261029</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5758947123771443</v>
+        <v>0.577489583083026</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6395806319310413</v>
+        <v>0.6427782943267683</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>1123542</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1061584</v>
+        <v>1066746</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1176283</v>
+        <v>1183828</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.326376045940502</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3083779392362141</v>
+        <v>0.309877499167699</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3416968363035878</v>
+        <v>0.3438884697273861</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2308</v>
@@ -7350,19 +7350,19 @@
         <v>1448136</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1398783</v>
+        <v>1390646</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1496543</v>
+        <v>1499684</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3983436126463268</v>
+        <v>0.3983436126463269</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3847681142434786</v>
+        <v>0.3825298759631714</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4116590769438114</v>
+        <v>0.4125232413571716</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3540</v>
@@ -7371,19 +7371,19 @@
         <v>2571677</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2493870</v>
+        <v>2493890</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2647091</v>
+        <v>2652597</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3633406174344569</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3523475420270299</v>
+        <v>0.3523504485503089</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3739954124678698</v>
+        <v>0.3747734115594703</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2318934</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2266193</v>
+        <v>2258648</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2380892</v>
+        <v>2375730</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6736239540594982</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6583031636964122</v>
+        <v>0.6561115302726138</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6916220607637859</v>
+        <v>0.6901225008323009</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2936</v>
@@ -7421,19 +7421,19 @@
         <v>2187257</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2138850</v>
+        <v>2135709</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2236610</v>
+        <v>2244747</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6016563873536732</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5883409230561886</v>
+        <v>0.5874767586428286</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6152318857565214</v>
+        <v>0.6174701240368289</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5004</v>
@@ -7442,19 +7442,19 @@
         <v>4506192</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4430778</v>
+        <v>4425272</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4583999</v>
+        <v>4583979</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.6366593825655431</v>
+        <v>0.636659382565543</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6260045875321301</v>
+        <v>0.6252265884405297</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.64765245797297</v>
+        <v>0.6476495514496912</v>
       </c>
     </row>
     <row r="24">
